--- a/Data Science Job Salaries_Excel Project.xlsx
+++ b/Data Science Job Salaries_Excel Project.xlsx
@@ -9,18 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700"/>
   </bookViews>
   <sheets>
-    <sheet name="Datei" sheetId="1" r:id="rId1"/>
-    <sheet name="Fragen" sheetId="2" r:id="rId2"/>
+    <sheet name="Working sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Questions" sheetId="2" r:id="rId2"/>
     <sheet name="Dashboard" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Datei!$A$1:$L$608</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Working sheet'!$A$1:$L$608</definedName>
     <definedName name="Datenschnitt_job_title">#N/A</definedName>
     <definedName name="Datenschnitt_work_year">#N/A</definedName>
-    <definedName name="ds_salaries" localSheetId="0">Datei!$A$1:$L$608</definedName>
+    <definedName name="ds_salaries" localSheetId="0">'Working sheet'!$A$1:$L$608</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
@@ -663,7 +663,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Data Science Job Salaries_Excel Project.xlsx]Fragen!PivotTable2</c:name>
+    <c:name>[Data Science Job Salaries_Excel Project.xlsx]Questions!PivotTable2</c:name>
     <c:fmtId val="9"/>
   </c:pivotSource>
   <c:chart>
@@ -3792,7 +3792,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Fragen!$B$4</c:f>
+              <c:f>Questions!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3902,7 +3902,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Fragen!$A$5:$A$8</c:f>
+              <c:f>Questions!$A$5:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3919,7 +3919,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Fragen!$B$5:$B$8</c:f>
+              <c:f>Questions!$B$5:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4097,7 +4097,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Data Science Job Salaries_Excel Project.xlsx]Fragen!PivotTable3</c:name>
+    <c:name>[Data Science Job Salaries_Excel Project.xlsx]Questions!PivotTable3</c:name>
     <c:fmtId val="13"/>
   </c:pivotSource>
   <c:chart>
@@ -12142,7 +12142,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Fragen!$B$14</c:f>
+              <c:f>Questions!$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12163,7 +12163,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Fragen!$A$15:$A$25</c:f>
+              <c:f>Questions!$A$15:$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -12201,7 +12201,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Fragen!$B$15:$B$25</c:f>
+              <c:f>Questions!$B$15:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -12438,7 +12438,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Data Science Job Salaries_Excel Project.xlsx]Fragen!PivotTable5</c:name>
+    <c:name>[Data Science Job Salaries_Excel Project.xlsx]Questions!PivotTable5</c:name>
     <c:fmtId val="3"/>
   </c:pivotSource>
   <c:chart>
@@ -12690,7 +12690,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Fragen!$B$31</c:f>
+              <c:f>Questions!$B$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12770,7 +12770,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Fragen!$A$32:$A$42</c:f>
+              <c:f>Questions!$A$32:$A$42</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -12808,7 +12808,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Fragen!$B$32:$B$42</c:f>
+              <c:f>Questions!$B$32:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -13004,7 +13004,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Data Science Job Salaries_Excel Project.xlsx]Fragen!PivotTable6</c:name>
+    <c:name>[Data Science Job Salaries_Excel Project.xlsx]Questions!PivotTable6</c:name>
     <c:fmtId val="4"/>
   </c:pivotSource>
   <c:chart>
@@ -14033,7 +14033,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Fragen!$B$48</c:f>
+              <c:f>Questions!$B$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14246,7 +14246,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Fragen!$A$49:$A$53</c:f>
+              <c:f>Questions!$A$49:$A$53</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -14266,7 +14266,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Fragen!$B$49:$B$53</c:f>
+              <c:f>Questions!$B$49:$B$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -16775,7 +16775,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Gansukh Gerelt-Od (MRK GmbH)" refreshedDate="44763.625373379633" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="607">
   <cacheSource type="worksheet">
-    <worksheetSource ref="B1:L608" sheet="Datei"/>
+    <worksheetSource ref="B1:L608" sheet="Working sheet"/>
   </cacheSource>
   <cacheFields count="11">
     <cacheField name="work_year" numFmtId="0">
@@ -25207,352 +25207,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="A48:B53" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="11">
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0">
-      <items count="51">
-        <item x="24"/>
-        <item x="19"/>
-        <item x="44"/>
-        <item x="26"/>
-        <item x="35"/>
-        <item x="12"/>
-        <item x="42"/>
-        <item x="2"/>
-        <item x="7"/>
-        <item x="28"/>
-        <item x="20"/>
-        <item x="30"/>
-        <item x="5"/>
-        <item x="25"/>
-        <item x="49"/>
-        <item x="36"/>
-        <item x="39"/>
-        <item x="10"/>
-        <item x="16"/>
-        <item x="11"/>
-        <item x="32"/>
-        <item x="22"/>
-        <item x="0"/>
-        <item x="38"/>
-        <item x="31"/>
-        <item x="13"/>
-        <item x="45"/>
-        <item x="40"/>
-        <item x="29"/>
-        <item x="23"/>
-        <item x="37"/>
-        <item x="46"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item x="6"/>
-        <item x="48"/>
-        <item x="34"/>
-        <item x="4"/>
-        <item x="17"/>
-        <item x="15"/>
-        <item x="1"/>
-        <item x="27"/>
-        <item x="18"/>
-        <item x="47"/>
-        <item x="41"/>
-        <item x="33"/>
-        <item x="21"/>
-        <item x="3"/>
-        <item x="14"/>
-        <item x="43"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Anzahl von job_title" fld="3" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="5">
-    <chartFormat chart="4" format="26" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="28">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="29">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="30">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A31:B42" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="11">
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" measureFilter="1" sortType="descending">
-      <items count="51">
-        <item x="24"/>
-        <item x="19"/>
-        <item x="44"/>
-        <item x="26"/>
-        <item x="35"/>
-        <item x="12"/>
-        <item x="42"/>
-        <item x="2"/>
-        <item x="7"/>
-        <item x="28"/>
-        <item x="20"/>
-        <item x="30"/>
-        <item x="5"/>
-        <item x="25"/>
-        <item x="49"/>
-        <item x="36"/>
-        <item x="39"/>
-        <item x="10"/>
-        <item x="16"/>
-        <item x="11"/>
-        <item x="32"/>
-        <item x="22"/>
-        <item x="0"/>
-        <item x="38"/>
-        <item x="31"/>
-        <item x="13"/>
-        <item x="45"/>
-        <item x="40"/>
-        <item x="29"/>
-        <item x="23"/>
-        <item x="37"/>
-        <item x="46"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item x="6"/>
-        <item x="48"/>
-        <item x="34"/>
-        <item x="4"/>
-        <item x="17"/>
-        <item x="15"/>
-        <item x="1"/>
-        <item x="27"/>
-        <item x="18"/>
-        <item x="47"/>
-        <item x="41"/>
-        <item x="33"/>
-        <item x="21"/>
-        <item x="3"/>
-        <item x="14"/>
-        <item x="43"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="11">
-    <i>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Maximum von salary_in_usd" fld="6" subtotal="max" baseField="3" baseItem="2"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="3" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="3" type="count" evalOrder="-1" id="1" iMeasureFld="0">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <top10 val="10" filterVal="10"/>
-        </filterColumn>
-      </autoFilter>
-    </filter>
-  </filters>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
   <location ref="A14:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
@@ -26145,7 +25799,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A4:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
@@ -26303,6 +25957,352 @@
     </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="A48:B53" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="51">
+        <item x="24"/>
+        <item x="19"/>
+        <item x="44"/>
+        <item x="26"/>
+        <item x="35"/>
+        <item x="12"/>
+        <item x="42"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="28"/>
+        <item x="20"/>
+        <item x="30"/>
+        <item x="5"/>
+        <item x="25"/>
+        <item x="49"/>
+        <item x="36"/>
+        <item x="39"/>
+        <item x="10"/>
+        <item x="16"/>
+        <item x="11"/>
+        <item x="32"/>
+        <item x="22"/>
+        <item x="0"/>
+        <item x="38"/>
+        <item x="31"/>
+        <item x="13"/>
+        <item x="45"/>
+        <item x="40"/>
+        <item x="29"/>
+        <item x="23"/>
+        <item x="37"/>
+        <item x="46"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item x="48"/>
+        <item x="34"/>
+        <item x="4"/>
+        <item x="17"/>
+        <item x="15"/>
+        <item x="1"/>
+        <item x="27"/>
+        <item x="18"/>
+        <item x="47"/>
+        <item x="41"/>
+        <item x="33"/>
+        <item x="21"/>
+        <item x="3"/>
+        <item x="14"/>
+        <item x="43"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Anzahl von job_title" fld="3" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="4" format="26" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="28">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="29">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="30">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A31:B42" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" measureFilter="1" sortType="descending">
+      <items count="51">
+        <item x="24"/>
+        <item x="19"/>
+        <item x="44"/>
+        <item x="26"/>
+        <item x="35"/>
+        <item x="12"/>
+        <item x="42"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="28"/>
+        <item x="20"/>
+        <item x="30"/>
+        <item x="5"/>
+        <item x="25"/>
+        <item x="49"/>
+        <item x="36"/>
+        <item x="39"/>
+        <item x="10"/>
+        <item x="16"/>
+        <item x="11"/>
+        <item x="32"/>
+        <item x="22"/>
+        <item x="0"/>
+        <item x="38"/>
+        <item x="31"/>
+        <item x="13"/>
+        <item x="45"/>
+        <item x="40"/>
+        <item x="29"/>
+        <item x="23"/>
+        <item x="37"/>
+        <item x="46"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item x="48"/>
+        <item x="34"/>
+        <item x="4"/>
+        <item x="17"/>
+        <item x="15"/>
+        <item x="1"/>
+        <item x="27"/>
+        <item x="18"/>
+        <item x="47"/>
+        <item x="41"/>
+        <item x="33"/>
+        <item x="21"/>
+        <item x="3"/>
+        <item x="14"/>
+        <item x="43"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Maximum von salary_in_usd" fld="6" subtotal="max" baseField="3" baseItem="2"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="3" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="3" type="count" evalOrder="-1" id="1" iMeasureFld="0">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <top10 val="10" filterVal="10"/>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -26672,7 +26672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L608"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E13" sqref="A1:L608"/>
     </sheetView>
   </sheetViews>
@@ -50224,7 +50224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
